--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5AFA5F65-1B11-4EA0-BAAF-861CE346F171}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485B93D-781D-43AB-9F8D-7E5840C76AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0128D685-878F-47F9-A966-EDF5CB49B0A1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
   <si>
     <t>Keyword</t>
   </si>
@@ -110,6 +110,9 @@
   </si>
   <si>
     <t>H23</t>
+  </si>
+  <si>
+    <t>Delete for Agency Object Group</t>
   </si>
 </sst>
 </file>
@@ -661,15 +664,15 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615240A-800C-43DF-9134-3FED5F180F11}">
-  <dimension ref="A1:D4"/>
+  <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+      <selection activeCell="C5" sqref="C5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="23.453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="23.453125" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
@@ -724,6 +727,18 @@
       </c>
       <c r="D4" s="4"/>
     </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A5" s="4">
+        <v>4</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="C5" s="4">
+        <v>32</v>
+      </c>
+      <c r="D5" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
@@ -5,12 +5,12 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\athakur\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B485B93D-781D-43AB-9F8D-7E5840C76AE2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E7848-E6CC-4DAD-B947-1C5B0DDD7532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0128D685-878F-47F9-A966-EDF5CB49B0A1}"/>
+    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7440" activeTab="1" xr2:uid="{0128D685-878F-47F9-A966-EDF5CB49B0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="37" uniqueCount="26">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
   <si>
     <t>Keyword</t>
   </si>
@@ -113,6 +113,12 @@
   </si>
   <si>
     <t>Delete for Agency Object Group</t>
+  </si>
+  <si>
+    <t>Delete for Organization Code Profile</t>
+  </si>
+  <si>
+    <t>AutoTitleEdited</t>
   </si>
 </sst>
 </file>
@@ -664,16 +670,17 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5615240A-800C-43DF-9134-3FED5F180F11}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
   <cols>
-    <col min="2" max="2" width="27.36328125" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.453125" customWidth="1"/>
+    <col min="1" max="1" width="8.1796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="31.1796875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="13.7265625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="15.6328125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -739,6 +746,42 @@
       </c>
       <c r="D5" s="4"/>
     </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A6" s="4">
+        <v>5</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" s="4"/>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A7" s="4"/>
+      <c r="B7" s="4"/>
+      <c r="C7" s="4"/>
+      <c r="D7" s="4"/>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A8" s="4"/>
+      <c r="B8" s="4"/>
+      <c r="C8" s="4"/>
+      <c r="D8" s="4"/>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A9" s="4"/>
+      <c r="B9" s="4"/>
+      <c r="C9" s="4"/>
+      <c r="D9" s="4"/>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.35">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+    </row>
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{605E7848-E6CC-4DAD-B947-1C5B0DDD7532}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C338EED8-F4D0-444D-8A31-1CFE6646B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="1060" yWindow="1060" windowWidth="14400" windowHeight="7440" activeTab="1" xr2:uid="{0128D685-878F-47F9-A966-EDF5CB49B0A1}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0128D685-878F-47F9-A966-EDF5CB49B0A1}"/>
   </bookViews>
   <sheets>
     <sheet name="TestSteps" sheetId="1" r:id="rId1"/>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="28">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
   <si>
     <t>Keyword</t>
   </si>
@@ -119,6 +119,15 @@
   </si>
   <si>
     <t>AutoTitleEdited</t>
+  </si>
+  <si>
+    <t>Delete for Fund Profile</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Delete for Agency GL Acount Profile </t>
+  </si>
+  <si>
+    <t>Delete For Program Code</t>
   </si>
 </sst>
 </file>
@@ -531,7 +540,7 @@
   <dimension ref="A1:F8"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+      <selection activeCell="A6" sqref="A6:XFD6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -673,7 +682,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="G11" sqref="G11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -759,21 +768,39 @@
       <c r="D6" s="4"/>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A7" s="4"/>
-      <c r="B7" s="4"/>
-      <c r="C7" s="4"/>
+      <c r="A7" s="4">
+        <v>6</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D7" s="4"/>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A8" s="4"/>
-      <c r="B8" s="4"/>
-      <c r="C8" s="4"/>
+      <c r="A8" s="4">
+        <v>7</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D8" s="4"/>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A9" s="4"/>
-      <c r="B9" s="4"/>
-      <c r="C9" s="4"/>
+      <c r="A9" s="4">
+        <v>8</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">

--- a/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
+++ b/src/main/java/TestSuite/MDOT/TestCases/MDOT/TC_PM_COA_SEC_DeleteProfile.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\pdighe\Documents\MDOT\rstars\src\main\java\TestSuite\MDOT\TestCases\MDOT\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C338EED8-F4D0-444D-8A31-1CFE6646B6C7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{631A9ACF-DAC0-44D9-8C82-01F6EA7FDD71}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10420" activeTab="1" xr2:uid="{0128D685-878F-47F9-A966-EDF5CB49B0A1}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="45" uniqueCount="31">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="47" uniqueCount="32">
   <si>
     <t>Keyword</t>
   </si>
@@ -128,6 +128,9 @@
   </si>
   <si>
     <t>Delete For Program Code</t>
+  </si>
+  <si>
+    <t>Delete For Agency Object Profile</t>
   </si>
 </sst>
 </file>
@@ -682,7 +685,7 @@
   <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="G11" sqref="G11"/>
+      <selection activeCell="C13" sqref="C13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -804,9 +807,15 @@
       <c r="D9" s="4"/>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.35">
-      <c r="A10" s="4"/>
-      <c r="B10" s="4"/>
-      <c r="C10" s="4"/>
+      <c r="A10" s="4">
+        <v>9</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>27</v>
+      </c>
       <c r="D10" s="4"/>
     </row>
   </sheetData>
